--- a/data/trans_orig/P42C-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P42C-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB2E4D59-A472-4C04-A234-385C00BCA1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5FB995F-7097-438F-AD00-460B204C9C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F0BC68A1-2DA0-459B-8BB9-683B14642E11}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C63D554C-99D8-4265-9380-252F00C0863F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="178">
-  <si>
-    <t>Población según el lugar donde tuvo lugar dicha consulta al ginecólogo en 2012 (Tasa respuesta: 38,79%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="180">
+  <si>
+    <t>Población según el lugar donde tuvo lugar dicha consulta ginecológica en 2012 (Tasa respuesta: 38,79%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -85,19 +85,19 @@
     <t>22,64%</t>
   </si>
   <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
   </si>
   <si>
     <t>77,36%</t>
   </si>
   <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
   </si>
   <si>
     <t>100%</t>
@@ -109,19 +109,19 @@
     <t>21,53%</t>
   </si>
   <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
   </si>
   <si>
     <t>78,47%</t>
   </si>
   <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -130,19 +130,19 @@
     <t>26,84%</t>
   </si>
   <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
   </si>
   <si>
     <t>73,16%</t>
   </si>
   <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -151,19 +151,19 @@
     <t>29,18%</t>
   </si>
   <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
   </si>
   <si>
     <t>70,82%</t>
   </si>
   <si>
-    <t>63,66%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -172,19 +172,19 @@
     <t>20,93%</t>
   </si>
   <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
   </si>
   <si>
     <t>79,07%</t>
   </si>
   <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -193,19 +193,19 @@
     <t>24,3%</t>
   </si>
   <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
   </si>
   <si>
     <t>75,7%</t>
   </si>
   <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -214,51 +214,57 @@
     <t>22,57%</t>
   </si>
   <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
   </si>
   <si>
     <t>77,43%</t>
   </si>
   <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
   </si>
   <si>
     <t>23,93%</t>
   </si>
   <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el lugar donde tuvo lugar dicha consulta al ginecólogo en 2015 (Tasa respuesta: 39,91%)</t>
+  </si>
+  <si>
     <t>22,29%</t>
   </si>
   <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
   </si>
   <si>
     <t>77,71%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el lugar donde tuvo lugar dicha consulta al ginecólogo en 2015 (Tasa respuesta: 39,91%)</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
     <t>71,6%</t>
   </si>
   <si>
@@ -409,169 +415,169 @@
     <t>85,81%</t>
   </si>
   <si>
-    <t>Población según el lugar donde tuvo lugar dicha consulta al ginecólogo en 2023 (Tasa respuesta: 36,36%)</t>
+    <t>Población según el lugar donde tuvo lugar dicha consulta ginecológica en 2023 (Tasa respuesta: 36,36%)</t>
   </si>
   <si>
     <t>21,33%</t>
   </si>
   <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
   </si>
   <si>
     <t>78,67%</t>
   </si>
   <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
   </si>
   <si>
     <t>27,22%</t>
   </si>
   <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
   </si>
   <si>
     <t>72,78%</t>
   </si>
   <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
   </si>
   <si>
     <t>17,24%</t>
   </si>
   <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
   </si>
   <si>
     <t>82,76%</t>
   </si>
   <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
   </si>
   <si>
     <t>21,19%</t>
   </si>
   <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
   </si>
   <si>
     <t>78,81%</t>
   </si>
   <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
   </si>
   <si>
     <t>19,01%</t>
   </si>
   <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
   </si>
   <si>
     <t>80,99%</t>
   </si>
   <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
   </si>
   <si>
     <t>15,86%</t>
   </si>
   <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
   </si>
   <si>
     <t>84,14%</t>
   </si>
   <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
   </si>
   <si>
     <t>45,01%</t>
   </si>
   <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
   </si>
   <si>
     <t>54,99%</t>
   </si>
   <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
   </si>
   <si>
     <t>11,56%</t>
   </si>
   <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
   </si>
   <si>
     <t>88,44%</t>
   </si>
   <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
   </si>
   <si>
     <t>23,88%</t>
   </si>
   <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
   </si>
   <si>
     <t>76,12%</t>
   </si>
   <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
   </si>
 </sst>
 </file>
@@ -983,7 +989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{394D0B09-1824-4CD5-9648-45B286F5B899}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EB446B-7B1B-457D-BA5F-8974692C8A64}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2448,7 +2454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F180CF5-1676-4215-B87A-FAFB7D38E555}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F87503-606B-4086-B691-B946CECC9B54}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2585,13 +2591,13 @@
         <v>50722</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M4" s="7">
         <v>48</v>
@@ -2600,13 +2606,13 @@
         <v>50722</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2634,13 +2640,13 @@
         <v>176870</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M5" s="7">
         <v>170</v>
@@ -2649,13 +2655,13 @@
         <v>176870</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2734,13 +2740,13 @@
         <v>59504</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M7" s="7">
         <v>57</v>
@@ -2749,13 +2755,13 @@
         <v>59504</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2783,13 +2789,13 @@
         <v>339980</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M8" s="7">
         <v>318</v>
@@ -2798,13 +2804,13 @@
         <v>339980</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2883,13 +2889,13 @@
         <v>15350</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -2898,13 +2904,13 @@
         <v>15350</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2932,13 +2938,13 @@
         <v>260352</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M11" s="7">
         <v>255</v>
@@ -2947,13 +2953,13 @@
         <v>260352</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3032,13 +3038,13 @@
         <v>38040</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -3047,13 +3053,13 @@
         <v>38040</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3081,13 +3087,13 @@
         <v>247340</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>229</v>
@@ -3096,13 +3102,13 @@
         <v>247340</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3181,13 +3187,13 @@
         <v>6221</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -3196,13 +3202,13 @@
         <v>6221</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3230,13 +3236,13 @@
         <v>162987</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>165</v>
@@ -3245,13 +3251,13 @@
         <v>162987</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3330,13 +3336,13 @@
         <v>37313</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M19" s="7">
         <v>37</v>
@@ -3345,13 +3351,13 @@
         <v>37313</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3379,13 +3385,13 @@
         <v>169955</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M20" s="7">
         <v>162</v>
@@ -3394,13 +3400,13 @@
         <v>169955</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3479,13 +3485,13 @@
         <v>127274</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M22" s="7">
         <v>120</v>
@@ -3494,13 +3500,13 @@
         <v>127274</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3528,13 +3534,13 @@
         <v>413871</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M23" s="7">
         <v>389</v>
@@ -3543,13 +3549,13 @@
         <v>413871</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3628,13 +3634,13 @@
         <v>95108</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M25" s="7">
         <v>85</v>
@@ -3643,13 +3649,13 @@
         <v>95108</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,13 +3683,13 @@
         <v>575867</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M26" s="7">
         <v>530</v>
@@ -3692,13 +3698,13 @@
         <v>575867</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3777,13 +3783,13 @@
         <v>429531</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M28" s="7">
         <v>404</v>
@@ -3792,13 +3798,13 @@
         <v>429531</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3826,13 +3832,13 @@
         <v>2347223</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M29" s="7">
         <v>2218</v>
@@ -3841,13 +3847,13 @@
         <v>2347223</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3925,7 +3931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{759ACF20-5731-4A4C-BBB9-9C3576DFD349}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1BE5E3-5161-4DAD-A766-5CCA7230B988}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3942,7 +3948,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4062,13 +4068,13 @@
         <v>31723</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M4" s="7">
         <v>59</v>
@@ -4077,13 +4083,13 @@
         <v>31723</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4111,13 +4117,13 @@
         <v>116999</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M5" s="7">
         <v>244</v>
@@ -4126,13 +4132,13 @@
         <v>116999</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,13 +4217,13 @@
         <v>96922</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M7" s="7">
         <v>119</v>
@@ -4226,13 +4232,13 @@
         <v>96922</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4260,13 +4266,13 @@
         <v>259145</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M8" s="7">
         <v>342</v>
@@ -4275,13 +4281,13 @@
         <v>259145</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4360,13 +4366,13 @@
         <v>33200</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M10" s="7">
         <v>46</v>
@@ -4375,13 +4381,13 @@
         <v>33200</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4409,13 +4415,13 @@
         <v>159325</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M11" s="7">
         <v>250</v>
@@ -4424,13 +4430,13 @@
         <v>159325</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4509,13 +4515,13 @@
         <v>56642</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>86</v>
@@ -4524,13 +4530,13 @@
         <v>56642</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4558,13 +4564,13 @@
         <v>210627</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M14" s="7">
         <v>285</v>
@@ -4573,13 +4579,13 @@
         <v>210627</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4658,13 +4664,13 @@
         <v>27040</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M16" s="7">
         <v>54</v>
@@ -4673,13 +4679,13 @@
         <v>27040</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4707,13 +4713,13 @@
         <v>115215</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M17" s="7">
         <v>263</v>
@@ -4722,13 +4728,13 @@
         <v>115215</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4807,13 +4813,13 @@
         <v>23313</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M19" s="7">
         <v>39</v>
@@ -4822,13 +4828,13 @@
         <v>23313</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4856,13 +4862,13 @@
         <v>123716</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M20" s="7">
         <v>232</v>
@@ -4871,13 +4877,13 @@
         <v>123716</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4956,13 +4962,13 @@
         <v>183379</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M22" s="7">
         <v>246</v>
@@ -4971,13 +4977,13 @@
         <v>183379</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5005,13 +5011,13 @@
         <v>224084</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M23" s="7">
         <v>328</v>
@@ -5020,13 +5026,13 @@
         <v>224084</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5105,13 +5111,13 @@
         <v>52123</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M25" s="7">
         <v>62</v>
@@ -5120,13 +5126,13 @@
         <v>52123</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5154,13 +5160,13 @@
         <v>398743</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M26" s="7">
         <v>524</v>
@@ -5169,13 +5175,13 @@
         <v>398743</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5254,13 +5260,13 @@
         <v>504342</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M28" s="7">
         <v>711</v>
@@ -5269,13 +5275,13 @@
         <v>504342</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5303,13 +5309,13 @@
         <v>1607853</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M29" s="7">
         <v>2468</v>
@@ -5318,13 +5324,13 @@
         <v>1607853</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P42C-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P42C-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5FB995F-7097-438F-AD00-460B204C9C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72D4095A-C30C-4E8A-ADEA-AF9FF463B556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C63D554C-99D8-4265-9380-252F00C0863F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2EF4745B-1560-4934-9D4F-07DC082ED4D3}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -85,19 +85,19 @@
     <t>22,64%</t>
   </si>
   <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
   </si>
   <si>
     <t>77,36%</t>
   </si>
   <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
   </si>
   <si>
     <t>100%</t>
@@ -109,19 +109,19 @@
     <t>21,53%</t>
   </si>
   <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
   </si>
   <si>
     <t>78,47%</t>
   </si>
   <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -130,19 +130,19 @@
     <t>26,84%</t>
   </si>
   <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
   </si>
   <si>
     <t>73,16%</t>
   </si>
   <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -151,19 +151,19 @@
     <t>29,18%</t>
   </si>
   <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
   </si>
   <si>
     <t>70,82%</t>
   </si>
   <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -172,19 +172,19 @@
     <t>20,93%</t>
   </si>
   <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
   </si>
   <si>
     <t>79,07%</t>
   </si>
   <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -193,19 +193,19 @@
     <t>24,3%</t>
   </si>
   <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
   </si>
   <si>
     <t>75,7%</t>
   </si>
   <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -214,115 +214,115 @@
     <t>22,57%</t>
   </si>
   <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
   </si>
   <si>
     <t>77,43%</t>
   </si>
   <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
   </si>
   <si>
     <t>23,93%</t>
   </si>
   <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
   </si>
   <si>
     <t>76,07%</t>
   </si>
   <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según el lugar donde tuvo lugar dicha consulta al ginecólogo en 2015 (Tasa respuesta: 39,91%)</t>
+    <t>Población según el lugar donde tuvo lugar dicha consulta ginecológica en 2016 (Tasa respuesta: 39,91%)</t>
   </si>
   <si>
     <t>22,29%</t>
   </si>
   <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
   </si>
   <si>
     <t>77,71%</t>
   </si>
   <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
   </si>
   <si>
     <t>14,9%</t>
   </si>
   <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
   </si>
   <si>
     <t>85,1%</t>
   </si>
   <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
   </si>
   <si>
     <t>5,57%</t>
   </si>
   <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
   </si>
   <si>
     <t>94,43%</t>
   </si>
   <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
   </si>
   <si>
     <t>13,33%</t>
   </si>
   <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
   </si>
   <si>
     <t>86,67%</t>
   </si>
   <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
   </si>
   <si>
     <t>3,68%</t>
@@ -331,13 +331,13 @@
     <t>1,57%</t>
   </si>
   <si>
-    <t>7,02%</t>
+    <t>7,61%</t>
   </si>
   <si>
     <t>96,32%</t>
   </si>
   <si>
-    <t>92,98%</t>
+    <t>92,39%</t>
   </si>
   <si>
     <t>98,43%</t>
@@ -346,73 +346,73 @@
     <t>18,0%</t>
   </si>
   <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
   </si>
   <si>
     <t>82,0%</t>
   </si>
   <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
   </si>
   <si>
     <t>23,52%</t>
   </si>
   <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
   </si>
   <si>
     <t>76,48%</t>
   </si>
   <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
   </si>
   <si>
     <t>14,17%</t>
   </si>
   <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
   </si>
   <si>
     <t>85,83%</t>
   </si>
   <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
   </si>
   <si>
     <t>15,47%</t>
   </si>
   <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
   </si>
   <si>
     <t>84,53%</t>
   </si>
   <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
   </si>
   <si>
     <t>Población según el lugar donde tuvo lugar dicha consulta ginecológica en 2023 (Tasa respuesta: 36,36%)</t>
@@ -989,7 +989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EB446B-7B1B-457D-BA5F-8974692C8A64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B0A86F-DE78-4493-9481-CF18921B27EE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2454,7 +2454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F87503-606B-4086-B691-B946CECC9B54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC8771E-E768-4F7A-A818-F7381B566A5A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3931,7 +3931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1BE5E3-5161-4DAD-A766-5CCA7230B988}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33627B62-2918-412D-A051-F5C4681BEC07}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P42C-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P42C-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72D4095A-C30C-4E8A-ADEA-AF9FF463B556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{838CBB1A-48F6-47E8-8444-E15261DC554D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2EF4745B-1560-4934-9D4F-07DC082ED4D3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8DA7D777-2C34-4768-A588-AE3F1A12BD51}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="178">
   <si>
     <t>Población según el lugar donde tuvo lugar dicha consulta ginecológica en 2012 (Tasa respuesta: 38,79%)</t>
   </si>
@@ -85,19 +85,19 @@
     <t>22,64%</t>
   </si>
   <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
   </si>
   <si>
     <t>77,36%</t>
   </si>
   <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
   </si>
   <si>
     <t>100%</t>
@@ -109,19 +109,19 @@
     <t>21,53%</t>
   </si>
   <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
   </si>
   <si>
     <t>78,47%</t>
   </si>
   <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -130,19 +130,19 @@
     <t>26,84%</t>
   </si>
   <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
   </si>
   <si>
     <t>73,16%</t>
   </si>
   <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -151,19 +151,19 @@
     <t>29,18%</t>
   </si>
   <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
   </si>
   <si>
     <t>70,82%</t>
   </si>
   <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
+    <t>63,66%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -172,19 +172,19 @@
     <t>20,93%</t>
   </si>
   <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
   </si>
   <si>
     <t>79,07%</t>
   </si>
   <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -193,19 +193,19 @@
     <t>24,3%</t>
   </si>
   <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
   </si>
   <si>
     <t>75,7%</t>
   </si>
   <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -214,37 +214,37 @@
     <t>22,57%</t>
   </si>
   <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
   </si>
   <si>
     <t>77,43%</t>
   </si>
   <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
   </si>
   <si>
     <t>23,93%</t>
   </si>
   <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
   </si>
   <si>
     <t>76,07%</t>
   </si>
   <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -253,76 +253,70 @@
     <t>Población según el lugar donde tuvo lugar dicha consulta ginecológica en 2016 (Tasa respuesta: 39,91%)</t>
   </si>
   <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
   </si>
   <si>
     <t>14,9%</t>
   </si>
   <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
   </si>
   <si>
     <t>85,1%</t>
   </si>
   <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
   </si>
   <si>
     <t>5,57%</t>
   </si>
   <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
   </si>
   <si>
     <t>94,43%</t>
   </si>
   <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
   </si>
   <si>
     <t>13,33%</t>
   </si>
   <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
   </si>
   <si>
     <t>86,67%</t>
   </si>
   <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
   </si>
   <si>
     <t>3,68%</t>
@@ -331,13 +325,13 @@
     <t>1,57%</t>
   </si>
   <si>
-    <t>7,61%</t>
+    <t>7,02%</t>
   </si>
   <si>
     <t>96,32%</t>
   </si>
   <si>
-    <t>92,39%</t>
+    <t>92,98%</t>
   </si>
   <si>
     <t>98,43%</t>
@@ -346,73 +340,73 @@
     <t>18,0%</t>
   </si>
   <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
   </si>
   <si>
     <t>82,0%</t>
   </si>
   <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
   </si>
   <si>
     <t>23,52%</t>
   </si>
   <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
   </si>
   <si>
     <t>76,48%</t>
   </si>
   <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
   </si>
   <si>
     <t>14,17%</t>
   </si>
   <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
   </si>
   <si>
     <t>85,83%</t>
   </si>
   <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
   </si>
   <si>
     <t>15,47%</t>
   </si>
   <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
   </si>
   <si>
     <t>84,53%</t>
   </si>
   <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
   </si>
   <si>
     <t>Población según el lugar donde tuvo lugar dicha consulta ginecológica en 2023 (Tasa respuesta: 36,36%)</t>
@@ -421,163 +415,163 @@
     <t>21,33%</t>
   </si>
   <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
   </si>
   <si>
     <t>78,67%</t>
   </si>
   <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
   </si>
   <si>
     <t>27,22%</t>
   </si>
   <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
   </si>
   <si>
     <t>72,78%</t>
   </si>
   <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
   </si>
   <si>
     <t>17,24%</t>
   </si>
   <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
   </si>
   <si>
     <t>82,76%</t>
   </si>
   <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
   </si>
   <si>
     <t>21,19%</t>
   </si>
   <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
   </si>
   <si>
     <t>78,81%</t>
   </si>
   <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
   </si>
   <si>
     <t>19,01%</t>
   </si>
   <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
   </si>
   <si>
     <t>80,99%</t>
   </si>
   <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
   </si>
   <si>
     <t>15,86%</t>
   </si>
   <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
   </si>
   <si>
     <t>84,14%</t>
   </si>
   <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
   </si>
   <si>
     <t>45,01%</t>
   </si>
   <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
   </si>
   <si>
     <t>54,99%</t>
   </si>
   <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
   </si>
   <si>
     <t>11,56%</t>
   </si>
   <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
   </si>
   <si>
     <t>88,44%</t>
   </si>
   <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
   </si>
   <si>
     <t>23,88%</t>
   </si>
   <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
   </si>
   <si>
     <t>76,12%</t>
   </si>
   <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
   </si>
 </sst>
 </file>
@@ -989,7 +983,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B0A86F-DE78-4493-9481-CF18921B27EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ECC73D4-8206-437A-98D5-10E49EB5AFF1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2454,7 +2448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC8771E-E768-4F7A-A818-F7381B566A5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80AA4887-6E00-407A-8EC6-DAD34FD0B7EB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2591,13 +2585,13 @@
         <v>50722</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M4" s="7">
         <v>48</v>
@@ -2606,13 +2600,13 @@
         <v>50722</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2640,13 +2634,13 @@
         <v>176870</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M5" s="7">
         <v>170</v>
@@ -2655,13 +2649,13 @@
         <v>176870</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2740,13 +2734,13 @@
         <v>59504</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M7" s="7">
         <v>57</v>
@@ -2755,13 +2749,13 @@
         <v>59504</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2789,13 +2783,13 @@
         <v>339980</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M8" s="7">
         <v>318</v>
@@ -2804,13 +2798,13 @@
         <v>339980</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2889,13 +2883,13 @@
         <v>15350</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -2904,13 +2898,13 @@
         <v>15350</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2938,13 +2932,13 @@
         <v>260352</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M11" s="7">
         <v>255</v>
@@ -2953,13 +2947,13 @@
         <v>260352</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,13 +3032,13 @@
         <v>38040</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -3053,13 +3047,13 @@
         <v>38040</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3087,13 +3081,13 @@
         <v>247340</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>229</v>
@@ -3102,13 +3096,13 @@
         <v>247340</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3187,13 +3181,13 @@
         <v>6221</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -3202,13 +3196,13 @@
         <v>6221</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3236,13 +3230,13 @@
         <v>162987</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>165</v>
@@ -3251,13 +3245,13 @@
         <v>162987</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3336,13 +3330,13 @@
         <v>37313</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M19" s="7">
         <v>37</v>
@@ -3351,13 +3345,13 @@
         <v>37313</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3385,13 +3379,13 @@
         <v>169955</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M20" s="7">
         <v>162</v>
@@ -3400,13 +3394,13 @@
         <v>169955</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3485,13 +3479,13 @@
         <v>127274</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M22" s="7">
         <v>120</v>
@@ -3500,13 +3494,13 @@
         <v>127274</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3534,13 +3528,13 @@
         <v>413871</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M23" s="7">
         <v>389</v>
@@ -3549,13 +3543,13 @@
         <v>413871</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3634,13 +3628,13 @@
         <v>95108</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M25" s="7">
         <v>85</v>
@@ -3649,13 +3643,13 @@
         <v>95108</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,13 +3677,13 @@
         <v>575867</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M26" s="7">
         <v>530</v>
@@ -3698,13 +3692,13 @@
         <v>575867</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3783,13 +3777,13 @@
         <v>429531</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M28" s="7">
         <v>404</v>
@@ -3798,13 +3792,13 @@
         <v>429531</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3832,13 +3826,13 @@
         <v>2347223</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M29" s="7">
         <v>2218</v>
@@ -3847,13 +3841,13 @@
         <v>2347223</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3931,7 +3925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33627B62-2918-412D-A051-F5C4681BEC07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7BEF79-FC9C-4EE0-BA36-593CF65C3D90}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3948,7 +3942,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4068,13 +4062,13 @@
         <v>31723</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M4" s="7">
         <v>59</v>
@@ -4083,13 +4077,13 @@
         <v>31723</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4117,13 +4111,13 @@
         <v>116999</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M5" s="7">
         <v>244</v>
@@ -4132,13 +4126,13 @@
         <v>116999</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,13 +4211,13 @@
         <v>96922</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M7" s="7">
         <v>119</v>
@@ -4232,13 +4226,13 @@
         <v>96922</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4266,13 +4260,13 @@
         <v>259145</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M8" s="7">
         <v>342</v>
@@ -4281,13 +4275,13 @@
         <v>259145</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,13 +4360,13 @@
         <v>33200</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M10" s="7">
         <v>46</v>
@@ -4381,13 +4375,13 @@
         <v>33200</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4415,13 +4409,13 @@
         <v>159325</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M11" s="7">
         <v>250</v>
@@ -4430,13 +4424,13 @@
         <v>159325</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,13 +4509,13 @@
         <v>56642</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>86</v>
@@ -4530,13 +4524,13 @@
         <v>56642</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4564,13 +4558,13 @@
         <v>210627</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M14" s="7">
         <v>285</v>
@@ -4579,13 +4573,13 @@
         <v>210627</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4664,13 +4658,13 @@
         <v>27040</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M16" s="7">
         <v>54</v>
@@ -4679,13 +4673,13 @@
         <v>27040</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4713,13 +4707,13 @@
         <v>115215</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M17" s="7">
         <v>263</v>
@@ -4728,13 +4722,13 @@
         <v>115215</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4813,13 +4807,13 @@
         <v>23313</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M19" s="7">
         <v>39</v>
@@ -4828,13 +4822,13 @@
         <v>23313</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4862,13 +4856,13 @@
         <v>123716</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M20" s="7">
         <v>232</v>
@@ -4877,13 +4871,13 @@
         <v>123716</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4962,13 +4956,13 @@
         <v>183379</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M22" s="7">
         <v>246</v>
@@ -4977,13 +4971,13 @@
         <v>183379</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5011,13 +5005,13 @@
         <v>224084</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M23" s="7">
         <v>328</v>
@@ -5026,13 +5020,13 @@
         <v>224084</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5111,13 +5105,13 @@
         <v>52123</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M25" s="7">
         <v>62</v>
@@ -5126,13 +5120,13 @@
         <v>52123</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5160,13 +5154,13 @@
         <v>398743</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M26" s="7">
         <v>524</v>
@@ -5175,13 +5169,13 @@
         <v>398743</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5260,13 +5254,13 @@
         <v>504342</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M28" s="7">
         <v>711</v>
@@ -5275,13 +5269,13 @@
         <v>504342</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5309,13 +5303,13 @@
         <v>1607853</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M29" s="7">
         <v>2468</v>
@@ -5324,13 +5318,13 @@
         <v>1607853</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P42C-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P42C-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{838CBB1A-48F6-47E8-8444-E15261DC554D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2615946-2E43-4311-B8C6-B708298955AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8DA7D777-2C34-4768-A588-AE3F1A12BD51}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6D3C3262-BD7B-406E-AEF5-6B5302165E5F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="182">
   <si>
     <t>Población según el lugar donde tuvo lugar dicha consulta ginecológica en 2012 (Tasa respuesta: 38,79%)</t>
   </si>
@@ -76,9 +76,30 @@
     <t>—%</t>
   </si>
   <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
     <t>Servicio sanitario público</t>
   </si>
   <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>Cadiz</t>
   </si>
   <si>
@@ -100,9 +121,6 @@
     <t>81,56%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>Cordoba</t>
   </si>
   <si>
@@ -127,22 +145,22 @@
     <t>Granada</t>
   </si>
   <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -412,166 +430,160 @@
     <t>Población según el lugar donde tuvo lugar dicha consulta ginecológica en 2023 (Tasa respuesta: 36,36%)</t>
   </si>
   <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
   </si>
 </sst>
 </file>
@@ -983,7 +995,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ECC73D4-8206-437A-98D5-10E49EB5AFF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2EDCC16-ABB9-40E8-B047-F427E44C10AB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1114,36 +1126,40 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="I4" s="7">
+        <v>53670</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="N4" s="7">
+        <v>53670</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -1159,30 +1175,34 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>160</v>
+      </c>
+      <c r="I5" s="7">
+        <v>181206</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>160</v>
+      </c>
+      <c r="N5" s="7">
+        <v>181206</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1204,35 +1224,39 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>207</v>
+      </c>
+      <c r="I6" s="7">
+        <v>234876</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>207</v>
+      </c>
+      <c r="N6" s="7">
+        <v>234876</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1257,13 +1281,13 @@
         <v>98357</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M7" s="7">
         <v>87</v>
@@ -1272,19 +1296,19 @@
         <v>98357</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1306,13 +1330,13 @@
         <v>336077</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M8" s="7">
         <v>309</v>
@@ -1321,13 +1345,13 @@
         <v>336077</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1355,13 +1379,13 @@
         <v>434434</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>396</v>
@@ -1370,18 +1394,18 @@
         <v>434434</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1406,13 +1430,13 @@
         <v>57655</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M10" s="7">
         <v>52</v>
@@ -1421,19 +1445,19 @@
         <v>57655</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -1455,13 +1479,13 @@
         <v>210132</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="M11" s="7">
         <v>194</v>
@@ -1470,13 +1494,13 @@
         <v>210132</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1504,13 +1528,13 @@
         <v>267787</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>246</v>
@@ -1519,18 +1543,18 @@
         <v>267787</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1549,40 +1573,40 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="I13" s="7">
-        <v>140592</v>
+        <v>86922</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="M13" s="7">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="N13" s="7">
-        <v>140592</v>
+        <v>86922</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -1598,34 +1622,34 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>354</v>
+        <v>194</v>
       </c>
       <c r="I14" s="7">
-        <v>383153</v>
+        <v>201947</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M14" s="7">
-        <v>354</v>
+        <v>194</v>
       </c>
       <c r="N14" s="7">
-        <v>383153</v>
+        <v>201947</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1647,39 +1671,39 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>483</v>
+        <v>276</v>
       </c>
       <c r="I15" s="7">
-        <v>523745</v>
+        <v>288869</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>483</v>
+        <v>276</v>
       </c>
       <c r="N15" s="7">
-        <v>523745</v>
+        <v>288869</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1704,13 +1728,13 @@
         <v>49433</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="M16" s="7">
         <v>46</v>
@@ -1719,19 +1743,19 @@
         <v>49433</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -1753,13 +1777,13 @@
         <v>119961</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="M17" s="7">
         <v>117</v>
@@ -1768,13 +1792,13 @@
         <v>119961</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1802,13 +1826,13 @@
         <v>169394</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>163</v>
@@ -1817,18 +1841,18 @@
         <v>169394</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1853,13 +1877,13 @@
         <v>44953</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="M19" s="7">
         <v>40</v>
@@ -1868,19 +1892,19 @@
         <v>44953</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -1902,13 +1926,13 @@
         <v>169839</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M20" s="7">
         <v>165</v>
@@ -1917,13 +1941,13 @@
         <v>169839</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1951,13 +1975,13 @@
         <v>214792</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>205</v>
@@ -1966,18 +1990,18 @@
         <v>214792</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2002,13 +2026,13 @@
         <v>135901</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="M22" s="7">
         <v>120</v>
@@ -2017,19 +2041,19 @@
         <v>135901</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -2051,13 +2075,13 @@
         <v>423434</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="M23" s="7">
         <v>387</v>
@@ -2066,13 +2090,13 @@
         <v>423434</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2100,13 +2124,13 @@
         <v>559335</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M24" s="7">
         <v>507</v>
@@ -2115,18 +2139,18 @@
         <v>559335</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2151,13 +2175,13 @@
         <v>128784</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M25" s="7">
         <v>114</v>
@@ -2166,19 +2190,19 @@
         <v>128784</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -2200,13 +2224,13 @@
         <v>441762</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="M26" s="7">
         <v>410</v>
@@ -2215,13 +2239,13 @@
         <v>441762</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2249,13 +2273,13 @@
         <v>570546</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M27" s="7">
         <v>524</v>
@@ -2264,13 +2288,13 @@
         <v>570546</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2300,13 +2324,13 @@
         <v>655675</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="M28" s="7">
         <v>588</v>
@@ -2315,19 +2339,19 @@
         <v>655675</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C29" s="7">
         <v>0</v>
@@ -2349,13 +2373,13 @@
         <v>2084359</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="M29" s="7">
         <v>1936</v>
@@ -2364,13 +2388,13 @@
         <v>2084359</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2398,13 +2422,13 @@
         <v>2740034</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M30" s="7">
         <v>2524</v>
@@ -2413,18 +2437,18 @@
         <v>2740034</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2448,7 +2472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80AA4887-6E00-407A-8EC6-DAD34FD0B7EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3959385B-AB12-4A0C-A7F8-ECAC820E6731}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2465,7 +2489,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2585,13 +2609,13 @@
         <v>50722</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M4" s="7">
         <v>48</v>
@@ -2600,19 +2624,19 @@
         <v>50722</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -2634,13 +2658,13 @@
         <v>176870</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="M5" s="7">
         <v>170</v>
@@ -2649,13 +2673,13 @@
         <v>176870</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2683,13 +2707,13 @@
         <v>227592</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>218</v>
@@ -2698,18 +2722,18 @@
         <v>227592</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2734,13 +2758,13 @@
         <v>59504</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="M7" s="7">
         <v>57</v>
@@ -2749,19 +2773,19 @@
         <v>59504</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -2783,13 +2807,13 @@
         <v>339980</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="M8" s="7">
         <v>318</v>
@@ -2798,13 +2822,13 @@
         <v>339980</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2832,13 +2856,13 @@
         <v>399484</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>375</v>
@@ -2847,18 +2871,18 @@
         <v>399484</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2883,13 +2907,13 @@
         <v>15350</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -2898,19 +2922,19 @@
         <v>15350</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -2932,13 +2956,13 @@
         <v>260352</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M11" s="7">
         <v>255</v>
@@ -2947,13 +2971,13 @@
         <v>260352</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,13 +3005,13 @@
         <v>275702</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>271</v>
@@ -2996,18 +3020,18 @@
         <v>275702</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3032,13 +3056,13 @@
         <v>38040</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -3047,19 +3071,19 @@
         <v>38040</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -3081,13 +3105,13 @@
         <v>247340</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M14" s="7">
         <v>229</v>
@@ -3096,13 +3120,13 @@
         <v>247340</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,13 +3154,13 @@
         <v>285380</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>263</v>
@@ -3145,18 +3169,18 @@
         <v>285380</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3181,13 +3205,13 @@
         <v>6221</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -3196,19 +3220,19 @@
         <v>6221</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -3230,13 +3254,13 @@
         <v>162987</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M17" s="7">
         <v>165</v>
@@ -3245,13 +3269,13 @@
         <v>162987</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3279,13 +3303,13 @@
         <v>169208</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>172</v>
@@ -3294,18 +3318,18 @@
         <v>169208</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3330,13 +3354,13 @@
         <v>37313</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="M19" s="7">
         <v>37</v>
@@ -3345,19 +3369,19 @@
         <v>37313</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -3379,13 +3403,13 @@
         <v>169955</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="M20" s="7">
         <v>162</v>
@@ -3394,13 +3418,13 @@
         <v>169955</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3428,13 +3452,13 @@
         <v>207268</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>199</v>
@@ -3443,18 +3467,18 @@
         <v>207268</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3479,13 +3503,13 @@
         <v>127274</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="M22" s="7">
         <v>120</v>
@@ -3494,19 +3518,19 @@
         <v>127274</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -3528,13 +3552,13 @@
         <v>413871</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="M23" s="7">
         <v>389</v>
@@ -3543,13 +3567,13 @@
         <v>413871</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3577,13 +3601,13 @@
         <v>541145</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M24" s="7">
         <v>509</v>
@@ -3592,18 +3616,18 @@
         <v>541145</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3628,13 +3652,13 @@
         <v>95108</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M25" s="7">
         <v>85</v>
@@ -3643,19 +3667,19 @@
         <v>95108</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -3677,13 +3701,13 @@
         <v>575867</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M26" s="7">
         <v>530</v>
@@ -3692,13 +3716,13 @@
         <v>575867</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3726,13 +3750,13 @@
         <v>670975</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M27" s="7">
         <v>615</v>
@@ -3741,13 +3765,13 @@
         <v>670975</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3777,13 +3801,13 @@
         <v>429531</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="M28" s="7">
         <v>404</v>
@@ -3792,19 +3816,19 @@
         <v>429531</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C29" s="7">
         <v>0</v>
@@ -3826,13 +3850,13 @@
         <v>2347223</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="M29" s="7">
         <v>2218</v>
@@ -3841,13 +3865,13 @@
         <v>2347223</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3875,13 +3899,13 @@
         <v>2776754</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M30" s="7">
         <v>2622</v>
@@ -3890,18 +3914,18 @@
         <v>2776754</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3925,7 +3949,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7BEF79-FC9C-4EE0-BA36-593CF65C3D90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F612F8F4-BF30-454E-8852-6B86D86E9842}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3942,7 +3966,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4059,37 +4083,37 @@
         <v>59</v>
       </c>
       <c r="I4" s="7">
-        <v>31723</v>
+        <v>33720</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>59</v>
       </c>
       <c r="N4" s="7">
-        <v>31723</v>
+        <v>33720</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -4108,31 +4132,31 @@
         <v>244</v>
       </c>
       <c r="I5" s="7">
-        <v>116999</v>
+        <v>123611</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="M5" s="7">
         <v>244</v>
       </c>
       <c r="N5" s="7">
-        <v>116999</v>
+        <v>123611</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4157,36 +4181,36 @@
         <v>303</v>
       </c>
       <c r="I6" s="7">
-        <v>148722</v>
+        <v>157331</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>303</v>
       </c>
       <c r="N6" s="7">
-        <v>148722</v>
+        <v>157331</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4208,37 +4232,37 @@
         <v>119</v>
       </c>
       <c r="I7" s="7">
-        <v>96922</v>
+        <v>90181</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="M7" s="7">
         <v>119</v>
       </c>
       <c r="N7" s="7">
-        <v>96922</v>
+        <v>90181</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -4257,31 +4281,31 @@
         <v>342</v>
       </c>
       <c r="I8" s="7">
-        <v>259145</v>
+        <v>241024</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M8" s="7">
         <v>342</v>
       </c>
       <c r="N8" s="7">
-        <v>259145</v>
+        <v>241024</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4306,36 +4330,36 @@
         <v>461</v>
       </c>
       <c r="I9" s="7">
-        <v>356067</v>
+        <v>331205</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>461</v>
       </c>
       <c r="N9" s="7">
-        <v>356067</v>
+        <v>331205</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4357,37 +4381,37 @@
         <v>46</v>
       </c>
       <c r="I10" s="7">
-        <v>33200</v>
+        <v>31000</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="M10" s="7">
         <v>46</v>
       </c>
       <c r="N10" s="7">
-        <v>33200</v>
+        <v>31000</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -4406,31 +4430,31 @@
         <v>250</v>
       </c>
       <c r="I11" s="7">
-        <v>159325</v>
+        <v>148575</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="M11" s="7">
         <v>250</v>
       </c>
       <c r="N11" s="7">
-        <v>159325</v>
+        <v>148575</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4455,36 +4479,36 @@
         <v>296</v>
       </c>
       <c r="I12" s="7">
-        <v>192525</v>
+        <v>179575</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>296</v>
       </c>
       <c r="N12" s="7">
-        <v>192525</v>
+        <v>179575</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4506,37 +4530,37 @@
         <v>86</v>
       </c>
       <c r="I13" s="7">
-        <v>56642</v>
+        <v>52276</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="M13" s="7">
         <v>86</v>
       </c>
       <c r="N13" s="7">
-        <v>56642</v>
+        <v>52276</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -4555,31 +4579,31 @@
         <v>285</v>
       </c>
       <c r="I14" s="7">
-        <v>210627</v>
+        <v>274113</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
         <v>285</v>
       </c>
       <c r="N14" s="7">
-        <v>210627</v>
+        <v>274113</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4604,36 +4628,36 @@
         <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>267269</v>
+        <v>326389</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>371</v>
       </c>
       <c r="N15" s="7">
-        <v>267269</v>
+        <v>326389</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4655,37 +4679,37 @@
         <v>54</v>
       </c>
       <c r="I16" s="7">
-        <v>27040</v>
+        <v>24352</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="M16" s="7">
         <v>54</v>
       </c>
       <c r="N16" s="7">
-        <v>27040</v>
+        <v>24352</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -4704,31 +4728,31 @@
         <v>263</v>
       </c>
       <c r="I17" s="7">
-        <v>115215</v>
+        <v>104880</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="M17" s="7">
         <v>263</v>
       </c>
       <c r="N17" s="7">
-        <v>115215</v>
+        <v>104880</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4753,36 +4777,36 @@
         <v>317</v>
       </c>
       <c r="I18" s="7">
-        <v>142255</v>
+        <v>129232</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>317</v>
       </c>
       <c r="N18" s="7">
-        <v>142255</v>
+        <v>129232</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4804,37 +4828,37 @@
         <v>39</v>
       </c>
       <c r="I19" s="7">
-        <v>23313</v>
+        <v>21625</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M19" s="7">
         <v>39</v>
       </c>
       <c r="N19" s="7">
-        <v>23313</v>
+        <v>21625</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -4853,31 +4877,31 @@
         <v>232</v>
       </c>
       <c r="I20" s="7">
-        <v>123716</v>
+        <v>115307</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="M20" s="7">
         <v>232</v>
       </c>
       <c r="N20" s="7">
-        <v>123716</v>
+        <v>115307</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4902,36 +4926,36 @@
         <v>271</v>
       </c>
       <c r="I21" s="7">
-        <v>147029</v>
+        <v>136932</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>271</v>
       </c>
       <c r="N21" s="7">
-        <v>147029</v>
+        <v>136932</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4953,37 +4977,37 @@
         <v>246</v>
       </c>
       <c r="I22" s="7">
-        <v>183379</v>
+        <v>170898</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="M22" s="7">
         <v>246</v>
       </c>
       <c r="N22" s="7">
-        <v>183379</v>
+        <v>170898</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -5002,31 +5026,31 @@
         <v>328</v>
       </c>
       <c r="I23" s="7">
-        <v>224084</v>
+        <v>207651</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="M23" s="7">
         <v>328</v>
       </c>
       <c r="N23" s="7">
-        <v>224084</v>
+        <v>207651</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5051,36 +5075,36 @@
         <v>574</v>
       </c>
       <c r="I24" s="7">
-        <v>407463</v>
+        <v>378549</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M24" s="7">
         <v>574</v>
       </c>
       <c r="N24" s="7">
-        <v>407463</v>
+        <v>378549</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5102,37 +5126,37 @@
         <v>62</v>
       </c>
       <c r="I25" s="7">
-        <v>52123</v>
+        <v>43286</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="M25" s="7">
         <v>62</v>
       </c>
       <c r="N25" s="7">
-        <v>52123</v>
+        <v>43286</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -5151,31 +5175,31 @@
         <v>524</v>
       </c>
       <c r="I26" s="7">
-        <v>398743</v>
+        <v>332307</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M26" s="7">
         <v>524</v>
       </c>
       <c r="N26" s="7">
-        <v>398743</v>
+        <v>332307</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5200,31 +5224,31 @@
         <v>586</v>
       </c>
       <c r="I27" s="7">
-        <v>450866</v>
+        <v>375593</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M27" s="7">
         <v>586</v>
       </c>
       <c r="N27" s="7">
-        <v>450866</v>
+        <v>375593</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5251,37 +5275,37 @@
         <v>711</v>
       </c>
       <c r="I28" s="7">
-        <v>504342</v>
+        <v>467337</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M28" s="7">
         <v>711</v>
       </c>
       <c r="N28" s="7">
-        <v>504342</v>
+        <v>467337</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C29" s="7">
         <v>0</v>
@@ -5300,31 +5324,31 @@
         <v>2468</v>
       </c>
       <c r="I29" s="7">
-        <v>1607853</v>
+        <v>1547468</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="M29" s="7">
         <v>2468</v>
       </c>
       <c r="N29" s="7">
-        <v>1607853</v>
+        <v>1547468</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5349,36 +5373,36 @@
         <v>3179</v>
       </c>
       <c r="I30" s="7">
-        <v>2112195</v>
+        <v>2014805</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M30" s="7">
         <v>3179</v>
       </c>
       <c r="N30" s="7">
-        <v>2112195</v>
+        <v>2014805</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
